--- a/datamining/final_data/tfidf1981_nltk.xlsx
+++ b/datamining/final_data/tfidf1981_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FZ41"/>
+  <dimension ref="A1:FJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,895 +447,815 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>editorial</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>guest</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>resources</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>adolescents</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>creative-thinking</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>moral</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>reasoning</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>secondary-school</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>art</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>elementary</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>visual-arts</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>aspects</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>language-development</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>adapting</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>non-psychomotor</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sports</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>varsity</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>dgg</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>differential</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>guidance</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>connections</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>openness</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>tentative</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>entry</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>gifted-children</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>door</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>identification</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>js</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>lh</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>reis</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>renzulli</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>revolving</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>sm</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>smith</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>ideation</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>inquiry</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>personal</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>techniques</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>adults</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>childhood</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>eminent</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>environmental-conditions</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>highly</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>traits</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>individualized</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>community</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>resource</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>university</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>youth</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>facilitating</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>lifetime</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>piece</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>processes</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>think</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>architectures</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>case-study</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>debt</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>modern</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>achievements</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>essential</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>intellectual</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>superior</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>zeal</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>math</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>squared</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>stern</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>peer</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>relationships</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>adjustment</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>emotional</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>intellectually-gifted</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>young</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>among</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>delinquents</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>dropouts</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>myths</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>over-representation</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>suicides</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>professional</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>1958-80</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>elementary-school-children</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>made</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>predicting</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>who</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>blooming</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>early</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>late</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>otherwise</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>scientists</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>artist</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>artistically</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>fast-paced</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>junior-high</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>mathematics</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>pre-calculus</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>recent</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>smpy</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>correction</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>bibliotherapy</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>using</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>componential</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>theory</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>communication-skills</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>curriculum</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>human-relations</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>inter-personal</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>k-12</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>rationale</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>media</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>mirrors</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>nature</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>attitudes</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>improving</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>toward</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>conceptual-framework</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>educating</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>leadership</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>recognizing</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>counseling</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>culturally</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>diverse</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>cerebral</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>handedness</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>hemispheric</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>intelligence</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>preference</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>museum</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>partnership</t>
         </is>
@@ -1352,34 +1272,34 @@
         <v>1260</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="E2" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="F2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="G2" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="H2" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I2" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="J2" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1838,54 +1758,6 @@
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1915,43 +1787,43 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="O3" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="P3" t="n">
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2386,54 +2258,6 @@
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2457,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2487,37 +2311,37 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="V4" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="W4" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -2934,54 +2758,6 @@
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -3023,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -3038,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -3053,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -3068,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -3482,54 +3258,6 @@
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3571,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -3586,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -3607,43 +3335,43 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -4030,54 +3758,6 @@
         <v>0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4101,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -4119,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -4134,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -4158,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -4173,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -4194,16 +3874,16 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -4578,54 +4258,6 @@
         <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4676,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -4733,13 +4365,13 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -4754,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -5126,54 +4758,6 @@
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5188,7 +4772,7 @@
         <v>1267</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5203,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5263,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5290,19 +4874,19 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
@@ -5311,19 +4895,19 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -5674,54 +5258,6 @@
         <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -5820,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -5853,28 +5389,28 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AY10" t="n">
         <v>0.3</v>
@@ -5886,25 +5422,25 @@
         <v>0.3</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
@@ -6222,54 +5758,6 @@
         <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6350,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6368,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -6401,28 +5889,28 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AY11" t="n">
         <v>0.3</v>
@@ -6434,25 +5922,25 @@
         <v>0.3</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -6770,54 +6258,6 @@
         <v>0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6832,10 +6272,10 @@
         <v>1270</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E12" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6859,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -6868,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -6889,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -6907,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -6982,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
@@ -7003,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -7318,54 +6758,6 @@
         <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7404,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -7419,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -7536,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
@@ -7557,10 +6949,10 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
@@ -7866,54 +7258,6 @@
         <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7943,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -7964,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -8090,43 +7434,43 @@
         <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
         <v>0</v>
@@ -8414,54 +7758,6 @@
         <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8491,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -8500,10 +7796,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -8512,13 +7808,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -8551,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8569,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
@@ -8656,16 +7952,16 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
@@ -8677,19 +7973,19 @@
         <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
@@ -8962,54 +8258,6 @@
         <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9024,7 +8272,7 @@
         <v>1274</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9033,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -9051,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9066,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -9216,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BT16" t="n">
         <v>0</v>
@@ -9240,19 +8488,19 @@
         <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="CC16" t="n">
         <v>0</v>
@@ -9510,54 +8758,6 @@
         <v>0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9572,7 +8772,7 @@
         <v>1275</v>
       </c>
       <c r="D17" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9755,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
@@ -9776,19 +8976,19 @@
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="BW17" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="BY17" t="n">
         <v>0</v>
@@ -9803,19 +9003,19 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -10058,54 +9258,6 @@
         <v>0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10120,7 +9272,7 @@
         <v>1276</v>
       </c>
       <c r="D18" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10162,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10177,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -10216,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -10339,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="CB18" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CC18" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
@@ -10366,19 +9518,19 @@
         <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CM18" t="n">
         <v>0</v>
@@ -10606,54 +9758,6 @@
         <v>0</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10764,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -10902,19 +10006,19 @@
         <v>0</v>
       </c>
       <c r="CD19" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CE19" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CF19" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="CG19" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CH19" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -10929,19 +10033,19 @@
         <v>0</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CR19" t="n">
         <v>0</v>
@@ -11154,54 +10258,6 @@
         <v>0</v>
       </c>
       <c r="FJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11333,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -11375,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="n">
         <v>0</v>
@@ -11465,13 +10521,13 @@
         <v>0</v>
       </c>
       <c r="CI20" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="CK20" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -11492,16 +10548,16 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CV20" t="n">
         <v>0</v>
@@ -11702,54 +10758,6 @@
         <v>0</v>
       </c>
       <c r="FJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11764,7 +10772,7 @@
         <v>1279</v>
       </c>
       <c r="D21" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -11779,10 +10787,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -11794,7 +10802,7 @@
         <v>0.12</v>
       </c>
       <c r="N21" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -11806,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -11902,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AY21" t="n">
         <v>0</v>
@@ -11923,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
         <v>0</v>
@@ -12022,10 +11030,10 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="CM21" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="CN21" t="n">
         <v>0</v>
@@ -12052,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="CX21" t="n">
         <v>0</v>
@@ -12250,54 +11258,6 @@
         <v>0</v>
       </c>
       <c r="FJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12327,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -12339,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -12348,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -12576,22 +11536,22 @@
         <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CO22" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CP22" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CR22" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CS22" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CT22" t="n">
         <v>0</v>
@@ -12606,22 +11566,22 @@
         <v>0</v>
       </c>
       <c r="CX22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CY22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DA22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DB22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DC22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DD22" t="n">
         <v>0</v>
@@ -12798,54 +11758,6 @@
         <v>0</v>
       </c>
       <c r="FJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12875,20 +11787,20 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.09</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.16</v>
-      </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -12896,13 +11808,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -13142,22 +12054,22 @@
         <v>0</v>
       </c>
       <c r="CT23" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CU23" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CV23" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CW23" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CX23" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CY23" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CZ23" t="n">
         <v>0</v>
@@ -13172,25 +12084,25 @@
         <v>0</v>
       </c>
       <c r="DD23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DG23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DH23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DI23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DK23" t="n">
         <v>0</v>
@@ -13346,54 +12258,6 @@
         <v>0</v>
       </c>
       <c r="FJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13408,10 +12272,10 @@
         <v>1282</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="E24" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -13708,10 +12572,10 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="DA24" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="DB24" t="n">
         <v>0</v>
@@ -13741,10 +12605,10 @@
         <v>0</v>
       </c>
       <c r="DK24" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="DL24" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="DM24" t="n">
         <v>0</v>
@@ -13894,54 +12758,6 @@
         <v>0</v>
       </c>
       <c r="FJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13983,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -13992,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -14070,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -14091,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
@@ -14262,10 +13078,10 @@
         <v>0</v>
       </c>
       <c r="DB25" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="DC25" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="DD25" t="n">
         <v>0</v>
@@ -14295,10 +13111,10 @@
         <v>0</v>
       </c>
       <c r="DM25" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="DN25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="DO25" t="n">
         <v>0</v>
@@ -14442,54 +13258,6 @@
         <v>0</v>
       </c>
       <c r="FJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14504,7 +13272,7 @@
         <v>1284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -14519,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -14531,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -14540,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -14729,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="CA26" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CB26" t="n">
         <v>0</v>
@@ -14756,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="CK26" t="n">
         <v>0</v>
@@ -14816,22 +13584,22 @@
         <v>0</v>
       </c>
       <c r="DD26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DE26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DF26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DG26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DH26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="DI26" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DJ26" t="n">
         <v>0</v>
@@ -14849,25 +13617,25 @@
         <v>0</v>
       </c>
       <c r="DO26" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DP26" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DQ26" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DR26" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DS26" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DT26" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="DU26" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DV26" t="n">
         <v>0</v>
@@ -14990,54 +13758,6 @@
         <v>0</v>
       </c>
       <c r="FJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15067,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -15079,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -15088,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -15235,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BN27" t="n">
         <v>0</v>
@@ -15259,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="BU27" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BV27" t="n">
         <v>0</v>
@@ -15382,19 +14102,19 @@
         <v>0</v>
       </c>
       <c r="DJ27" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DK27" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DL27" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DM27" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DN27" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="DO27" t="n">
         <v>0</v>
@@ -15418,19 +14138,19 @@
         <v>0</v>
       </c>
       <c r="DV27" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DW27" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DX27" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DY27" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="DZ27" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EA27" t="n">
         <v>0</v>
@@ -15538,54 +14258,6 @@
         <v>0</v>
       </c>
       <c r="FJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15600,7 +14272,7 @@
         <v>1286</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -15609,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -15618,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -15627,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -15636,13 +14308,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -15666,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -15684,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
@@ -15945,13 +14617,13 @@
         <v>0</v>
       </c>
       <c r="DO28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DP28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DQ28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DR28" t="n">
         <v>0</v>
@@ -15981,13 +14653,13 @@
         <v>0</v>
       </c>
       <c r="EA28" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EB28" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="EC28" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="ED28" t="n">
         <v>0</v>
@@ -16086,54 +14758,6 @@
         <v>0</v>
       </c>
       <c r="FJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16157,13 +14781,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -16172,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -16223,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -16241,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -16502,25 +15126,25 @@
         <v>0</v>
       </c>
       <c r="DR29" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DS29" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DT29" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DU29" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DV29" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DW29" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DX29" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="DY29" t="n">
         <v>0</v>
@@ -16538,28 +15162,28 @@
         <v>0</v>
       </c>
       <c r="ED29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EE29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EF29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EG29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EH29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EI29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EJ29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EK29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EL29" t="n">
         <v>0</v>
@@ -16634,54 +15258,6 @@
         <v>0</v>
       </c>
       <c r="FJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17071,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="DY30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ30" t="n">
         <v>0</v>
@@ -17110,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="EL30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM30" t="n">
         <v>0</v>
@@ -17182,54 +15758,6 @@
         <v>0</v>
       </c>
       <c r="FJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17352,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
@@ -17373,7 +15901,7 @@
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
         <v>0</v>
@@ -17622,10 +16150,10 @@
         <v>0</v>
       </c>
       <c r="DZ31" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="EA31" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="EB31" t="n">
         <v>0</v>
@@ -17661,13 +16189,13 @@
         <v>0</v>
       </c>
       <c r="EM31" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="EN31" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="EO31" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="EP31" t="n">
         <v>0</v>
@@ -17730,54 +16258,6 @@
         <v>0</v>
       </c>
       <c r="FJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17792,7 +16272,7 @@
         <v>1290</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -17807,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -18032,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="CF32" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CG32" t="n">
         <v>0</v>
@@ -18059,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="CO32" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="CP32" t="n">
         <v>0</v>
@@ -18176,13 +16656,13 @@
         <v>0</v>
       </c>
       <c r="EB32" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="EC32" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="ED32" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="EE32" t="n">
         <v>0</v>
@@ -18218,13 +16698,13 @@
         <v>0</v>
       </c>
       <c r="EP32" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="EQ32" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="ER32" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="ES32" t="n">
         <v>0</v>
@@ -18278,54 +16758,6 @@
         <v>0</v>
       </c>
       <c r="FJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18340,7 +16772,7 @@
         <v>1291</v>
       </c>
       <c r="D33" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -18349,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -18367,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -18382,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -18397,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -18415,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -18433,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -18733,25 +17165,25 @@
         <v>0</v>
       </c>
       <c r="EE33" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EF33" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EG33" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EH33" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EI33" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EJ33" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EK33" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="EL33" t="n">
         <v>0</v>
@@ -18775,25 +17207,25 @@
         <v>0</v>
       </c>
       <c r="ES33" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="ET33" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EU33" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EV33" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EW33" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EX33" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EY33" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EZ33" t="n">
         <v>0</v>
@@ -18826,54 +17258,6 @@
         <v>0</v>
       </c>
       <c r="FJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18903,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -18930,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -19302,10 +17686,10 @@
         <v>0</v>
       </c>
       <c r="EL34" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EM34" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="EN34" t="n">
         <v>0</v>
@@ -19344,10 +17728,10 @@
         <v>0</v>
       </c>
       <c r="EZ34" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="FA34" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="FB34" t="n">
         <v>0</v>
@@ -19374,54 +17758,6 @@
         <v>0</v>
       </c>
       <c r="FJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19451,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -19463,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -19472,7 +17808,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -19823,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="EC35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="ED35" t="n">
         <v>0</v>
@@ -19856,16 +18192,16 @@
         <v>0</v>
       </c>
       <c r="EN35" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="EO35" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="EP35" t="n">
         <v>0</v>
       </c>
       <c r="EQ35" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="ER35" t="n">
         <v>0</v>
@@ -19898,10 +18234,10 @@
         <v>0</v>
       </c>
       <c r="FB35" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="FC35" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="FD35" t="n">
         <v>0</v>
@@ -19922,54 +18258,6 @@
         <v>0</v>
       </c>
       <c r="FJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19999,7 +18287,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -20026,7 +18314,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -20311,7 +18599,7 @@
         <v>0</v>
       </c>
       <c r="DI36" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="DJ36" t="n">
         <v>0</v>
@@ -20344,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="DT36" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="DU36" t="n">
         <v>0</v>
@@ -20410,19 +18698,19 @@
         <v>0</v>
       </c>
       <c r="EP36" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="EQ36" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="ER36" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="ES36" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="ET36" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="EU36" t="n">
         <v>0</v>
@@ -20452,72 +18740,24 @@
         <v>0</v>
       </c>
       <c r="FD36" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="FE36" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="FF36" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="FG36" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="FH36" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="FI36" t="n">
         <v>0</v>
       </c>
       <c r="FJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20532,7 +18772,7 @@
         <v>1295</v>
       </c>
       <c r="D37" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -20541,7 +18781,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -20568,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -20973,16 +19213,16 @@
         <v>0</v>
       </c>
       <c r="EU37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EV37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EW37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EX37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EY37" t="n">
         <v>0</v>
@@ -21015,57 +19255,9 @@
         <v>0</v>
       </c>
       <c r="FI37" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="FJ37" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FK37" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FL37" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="FM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21122,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -21533,13 +19725,13 @@
         <v>0</v>
       </c>
       <c r="EY38" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="EZ38" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="FA38" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="FB38" t="n">
         <v>0</v>
@@ -21566,54 +19758,6 @@
         <v>0</v>
       </c>
       <c r="FJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM38" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="FN38" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="FO38" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="FP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21628,7 +19772,7 @@
         <v>1297</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -21643,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -21655,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -21670,7 +19814,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -21937,7 +20081,7 @@
         <v>0</v>
       </c>
       <c r="DC39" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="DD39" t="n">
         <v>0</v>
@@ -21970,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="DN39" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DO39" t="n">
         <v>0</v>
@@ -22090,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="FB39" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="FC39" t="n">
         <v>0</v>
@@ -22114,54 +20258,6 @@
         <v>0</v>
       </c>
       <c r="FJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP39" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FQ39" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FR39" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="FS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22197,28 +20293,28 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -22251,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -22641,19 +20737,19 @@
         <v>0</v>
       </c>
       <c r="FC40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FD40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FE40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FF40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FG40" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="FH40" t="n">
         <v>0</v>
@@ -22662,54 +20758,6 @@
         <v>0</v>
       </c>
       <c r="FJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS40" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FT40" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FU40" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FV40" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FW40" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22724,7 +20772,7 @@
         <v>1299</v>
       </c>
       <c r="D41" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -22733,7 +20781,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -22760,7 +20808,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22838,7 +20886,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
@@ -22859,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="AW41" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
@@ -23204,61 +21252,13 @@
         <v>0</v>
       </c>
       <c r="FH41" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="FI41" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="FJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX41" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="FY41" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="FZ41" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
